--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rk604\eclipse-workspace\OpenCart\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DABF03-0CEB-442C-A9AA-2F126CDB909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0FD84B-087E-42FD-B5E0-AF223A9EE66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="9960" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,8 +562,8 @@
     <hyperlink ref="A5" r:id="rId3" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
-    <hyperlink ref="A2" r:id="rId6" xr:uid="{B4A8CB2F-C22F-4824-A578-F9492A062976}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{343D76AF-8C7B-4D6B-9B7E-C182EA1882CA}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{343D76AF-8C7B-4D6B-9B7E-C182EA1882CA}"/>
+    <hyperlink ref="A2" r:id="rId7" xr:uid="{B4A8CB2F-C22F-4824-A578-F9492A062976}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
